--- a/Jan'2021/Daily Sales Details/27.01.2021/Bank Statement.xlsx
+++ b/Jan'2021/Daily Sales Details/27.01.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -778,13 +778,13 @@
     <t>26.01.2021</t>
   </si>
   <si>
-    <t>Date :27-01-2021</t>
-  </si>
-  <si>
     <t>27.01.2021</t>
   </si>
   <si>
     <t>26.01.2020</t>
+  </si>
+  <si>
+    <t>Date :28-01-2021</t>
   </si>
 </sst>
 </file>
@@ -2450,6 +2450,57 @@
     <xf numFmtId="2" fontId="19" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2472,57 +2523,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3028,70 +3028,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="235"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="235"/>
     </row>
     <row r="3" spans="1:25" s="108" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="254" t="s">
+      <c r="A3" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="255"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="256"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="248"/>
       <c r="T3" s="109"/>
       <c r="U3" s="110"/>
       <c r="V3" s="110"/>
@@ -3100,55 +3100,55 @@
       <c r="Y3" s="111"/>
     </row>
     <row r="4" spans="1:25" s="111" customFormat="1">
-      <c r="A4" s="246" t="s">
+      <c r="A4" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="238" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="242" t="s">
+      <c r="F4" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="242" t="s">
+      <c r="G4" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="242" t="s">
+      <c r="H4" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="242" t="s">
+      <c r="I4" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="242" t="s">
+      <c r="J4" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="257" t="s">
+      <c r="K4" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="234" t="s">
+      <c r="L4" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="M4" s="236" t="s">
+      <c r="M4" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="238" t="s">
+      <c r="N4" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="240" t="s">
+      <c r="O4" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="250" t="s">
+      <c r="P4" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="252" t="s">
+      <c r="Q4" s="244" t="s">
         <v>40</v>
       </c>
       <c r="R4" s="112" t="s">
@@ -3161,23 +3161,23 @@
       <c r="X4" s="110"/>
     </row>
     <row r="5" spans="1:25" s="111" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="247"/>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="235"/>
-      <c r="M5" s="237"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="241"/>
-      <c r="P5" s="251"/>
-      <c r="Q5" s="253"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="254"/>
+      <c r="N5" s="256"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="245"/>
       <c r="R5" s="114" t="s">
         <v>42</v>
       </c>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="29" spans="1:24" s="117" customFormat="1">
       <c r="A29" s="125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="124"/>
       <c r="C29" s="125"/>
@@ -6201,6 +6201,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6217,10 +6221,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="54">
         <v>202000</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="81">
         <v>191000</v>
@@ -8317,8 +8317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8371,7 +8371,7 @@
         <v>13556</v>
       </c>
       <c r="C6" s="230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -8382,7 +8382,7 @@
         <v>10573</v>
       </c>
       <c r="C7" s="230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -8400,11 +8400,9 @@
       <c r="A9" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="230">
-        <v>19457</v>
-      </c>
+      <c r="B9" s="230"/>
       <c r="C9" s="230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
@@ -8415,7 +8413,7 @@
         <v>3069</v>
       </c>
       <c r="C10" s="230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75">
@@ -8466,7 +8464,7 @@
         <v>4603</v>
       </c>
       <c r="C15" s="230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
@@ -8477,7 +8475,7 @@
         <v>2166</v>
       </c>
       <c r="C16" s="230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
@@ -8497,7 +8495,7 @@
         <v>5675</v>
       </c>
       <c r="C18" s="230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
@@ -8539,7 +8537,7 @@
         <v>1420</v>
       </c>
       <c r="C22" s="230" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
@@ -8585,7 +8583,7 @@
       </c>
       <c r="B28" s="231">
         <f>SUM(B6:B27)</f>
-        <v>80856</v>
+        <v>61399</v>
       </c>
       <c r="C28" s="232"/>
     </row>
@@ -8603,7 +8601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -9035,8 +9033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9143,7 +9141,7 @@
     </row>
     <row r="5" spans="1:17" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="286" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B5" s="287"/>
       <c r="C5" s="286" t="s">
